--- a/biology/Botanique/Pensée_des_Vosges/Pensée_des_Vosges.xlsx
+++ b/biology/Botanique/Pensée_des_Vosges/Pensée_des_Vosges.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pens%C3%A9e_des_Vosges</t>
+          <t>Pensée_des_Vosges</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Viola lutea
 La pensée des Vosges, pensée jaune ou violette des Sudètes (Viola lutea) est une espèce de plante à fleurs de la famille des Violacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pens%C3%A9e_des_Vosges</t>
+          <t>Pensée_des_Vosges</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La pensée des Vosges est une plante herbacée vivace velue ou glabre à tiges rampantes et grêles.
 Les feuilles sont ovales, oblongues ou lancéolées, dentées, longuement pétiolées. Les stipules sont pennées-lobées.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pens%C3%A9e_des_Vosges</t>
+          <t>Pensée_des_Vosges</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, la Pensée des Vosges croît en montagne, essentiellement dans les Vosges et le Massif central, dans les pelouses plutôt acidophiles. C'est en effet une plante typique des hautes chaumes vosgiennes, où elle pousse au-dessus de 800m d'altitude.
 Ailleurs en Europe, elle est très présente dans les îles britanniques, en particulier en Ecosse et au pays de Galles où elle est désignée sous le terme de "mountain Pansy" ou "Pensée des montagnes" (elle croît en effet sur les hautes terres, jusqu'à 1 000 m d'altitude en Ecosse).
